--- a/IEDC_queries/IEDC_product_material_search_vMay2025.xlsx
+++ b/IEDC_queries/IEDC_product_material_search_vMay2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB84A153-638B-4EAE-8B4C-528E9D30D303}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBFA76A-AD53-4AB6-83EA-BB88431B1D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D23:D24"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
